--- a/trained_models_drop/MLP/pendigits/results_table.xlsx
+++ b/trained_models_drop/MLP/pendigits/results_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>orig-fxp-drop</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>fxppo2_accuracy_qkeras</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>orig-fxppo2-drop_qkeras</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +536,12 @@
       <c r="J2" t="n">
         <v>0.0008576329331047017</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.4994282447112636</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1177815894797027</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +584,12 @@
       <c r="J3" t="n">
         <v>0.05774728416237845</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.192967409948542</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2004002287021155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +632,12 @@
       <c r="J4" t="n">
         <v>0.0423098913664951</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2638650657518582</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2590051457975986</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +680,12 @@
       <c r="J5" t="n">
         <v>0.2610062893081762</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.3902229845626072</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4105202973127502</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +728,12 @@
       <c r="J6" t="n">
         <v>-0.2810177244139508</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.4451114922813036</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1532304173813608</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +776,12 @@
       <c r="J7" t="n">
         <v>-0.09919954259576907</v>
       </c>
+      <c r="K7" t="n">
+        <v>0.4473985134362493</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.008862206975414622</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +824,12 @@
       <c r="J8" t="n">
         <v>-0.08947970268724981</v>
       </c>
+      <c r="K8" t="n">
+        <v>0.1786735277301315</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1497998856489423</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +872,12 @@
       <c r="J9" t="n">
         <v>-0.1326472269868497</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.3947970268724986</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04088050314465402</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +920,12 @@
       <c r="J10" t="n">
         <v>0.2164093767867353</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.2558604917095483</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3487707261292167</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +968,12 @@
       <c r="J11" t="n">
         <v>0.2398513436249286</v>
       </c>
+      <c r="K11" t="n">
+        <v>0.1981132075471698</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3430531732418525</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1016,12 @@
       <c r="J12" t="n">
         <v>0.3890794739851344</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5145797598627788</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1064,12 @@
       <c r="J13" t="n">
         <v>-0.02401372212692965</v>
       </c>
+      <c r="K13" t="n">
+        <v>0.4050886220697542</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1194968553459119</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1112,12 @@
       <c r="J14" t="n">
         <v>0.05546026300743279</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.3927958833619211</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2724413950829045</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1160,12 @@
       <c r="J15" t="n">
         <v>0.1063464837049742</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.3982275586049171</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2695826186392224</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1208,12 @@
       <c r="J16" t="n">
         <v>0.160377358490566</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5200114351057747</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2438536306460835</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,6 +1256,12 @@
       <c r="J17" t="n">
         <v>0.2449971412235564</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.1423670668953688</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3604917095483133</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1198,6 +1304,12 @@
       <c r="J18" t="n">
         <v>-0.07347055460263008</v>
       </c>
+      <c r="K18" t="n">
+        <v>0.5391652372784448</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.04574042309891369</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1240,6 +1352,12 @@
       <c r="J19" t="n">
         <v>-0.1206403659233848</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.2484276729559748</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1052029731275014</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1282,6 +1400,12 @@
       <c r="J20" t="n">
         <v>-0.05688965122927386</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.2381360777587193</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1040594625500286</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1323,6 +1447,12 @@
       </c>
       <c r="J21" t="n">
         <v>-0.2661520869068039</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5497427101200686</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.2741566609491138</v>
       </c>
     </row>
   </sheetData>
